--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\2023_1st\CV\FaceAlignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\2023_1st\CV\FaceAlignment\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFC127A-3E84-4159-8883-A8EDE830322E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CFDA9E-4B52-4211-B0F9-16A8C178AA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -447,7 +447,7 @@
   <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1746,6 +1746,9 @@
       <c r="F70" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="G70" s="1">
+        <v>6.4249999999999998</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\2023_1st\CV\FaceAlignment\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CFDA9E-4B52-4211-B0F9-16A8C178AA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82794CDC-1C15-4B3A-932B-6C067DD898BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\2023_1st\CV\FaceAlignment\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82794CDC-1C15-4B3A-932B-6C067DD898BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518FB736-504D-45E2-9D2C-4E42BF69C556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="21">
   <si>
     <t>Model</t>
   </si>
@@ -444,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+      <selection activeCell="A71" sqref="A71:XFD71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1750,24 +1750,27 @@
         <v>6.4249999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E71" s="1">
-        <v>4</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>16</v>
+      <c r="B72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E72" s="1">
+        <v>2</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" s="1">
+        <v>6.7430000000000003</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -1784,13 +1787,13 @@
         <v>0.3</v>
       </c>
       <c r="E73" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G73" s="1">
-        <v>6.7430000000000003</v>
+        <v>6.9950000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -1807,13 +1810,13 @@
         <v>0.3</v>
       </c>
       <c r="E74" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G74" s="1">
-        <v>6.9950000000000001</v>
+        <v>7.0430000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -1830,35 +1833,12 @@
         <v>0.3</v>
       </c>
       <c r="E75" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G75" s="1">
-        <v>7.0430000000000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B76" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E76" s="1">
-        <v>16</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" s="1">
         <v>6.2329999999999997</v>
       </c>
     </row>
